--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/input/argentina_rawdata.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/input/argentina_rawdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17930" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="age5yr" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>male</t>
   </si>
@@ -110,7 +110,7 @@
     <t>fhic</t>
   </si>
   <si>
-    <t>s0shf</t>
+    <t>s0sh</t>
   </si>
   <si>
     <t>ps</t>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>ts</t>
-  </si>
-  <si>
-    <t>s0shm</t>
   </si>
   <si>
     <t>no</t>
@@ -212,8 +209,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#\ ###\ ###\ ##0;\-#\ ###\ ###\ ##0;0"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="#\ ###\ ###\ ##0;\-#\ ###\ ###\ ##0;0"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -901,10 +898,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4874,8 +4871,8 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
@@ -5290,15 +5287,15 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" customHeight="1" spans="2:6">
       <c r="B1" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>30</v>
@@ -5717,28 +5714,28 @@
       <c r="A1" s="6"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:10">
@@ -6920,28 +6917,28 @@
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:10">
@@ -8125,22 +8122,22 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
@@ -8150,13 +8147,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -8166,13 +8163,13 @@
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -8182,13 +8179,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
@@ -8200,13 +8197,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
@@ -8218,13 +8215,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
@@ -8236,13 +8233,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D8" s="2">
         <v>3</v>
